--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURFACE\Desktop\Guillermo\SeterkGit\Seterk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CF88F8B-3BA8-403E-86F1-06127C189896}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C8F4ED-5FB5-4B68-8BAE-CB9EAB9F22D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{78EE08C8-1282-4F85-89D2-64A34BB3A6A7}"/>
   </bookViews>
@@ -33,8 +33,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={25321A7D-4506-4F2C-9A5B-08DC2F3E70F2}</author>
+  </authors>
+  <commentList>
+    <comment ref="K15" authorId="0" shapeId="0" xr:uid="{25321A7D-4506-4F2C-9A5B-08DC2F3E70F2}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    RECIBO ES EL QUE RESTA A INVENTARIO</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>Usuarios</t>
   </si>
@@ -295,13 +313,22 @@
   </si>
   <si>
     <t>reparaciones varias</t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>Recibo</t>
+  </si>
+  <si>
+    <t>codRecibo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,13 +336,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -330,9 +369,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,6 +388,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Maynor Garcia" id="{026D1C26-E9B9-43CB-897F-AE3E5D58A08A}" userId="ca1110a43c5512ad" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -645,6 +691,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K15" dT="2020-03-06T18:28:49.34" personId="{026D1C26-E9B9-43CB-897F-AE3E5D58A08A}" id="{25321A7D-4506-4F2C-9A5B-08DC2F3E70F2}">
+    <text>RECIBO ES EL QUE RESTA A INVENTARIO</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B0CEAE-2640-4F38-ABB5-8E7AAF37A003}">
   <dimension ref="A1:B3"/>
@@ -682,11 +736,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF10D8E1-2DAC-4B2C-8624-C5725C01F33D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF10D8E1-2DAC-4B2C-8624-C5725C01F33D}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:L5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -895,6 +949,9 @@
       <c r="I15" t="s">
         <v>56</v>
       </c>
+      <c r="K15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
@@ -906,6 +963,9 @@
       <c r="I16" t="s">
         <v>64</v>
       </c>
+      <c r="K16" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
@@ -930,7 +990,7 @@
       </c>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H19" t="s">
@@ -941,7 +1001,7 @@
       </c>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H20" t="s">
@@ -952,7 +1012,7 @@
       </c>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H21" t="s">
@@ -985,7 +1045,7 @@
       </c>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I24" t="s">
@@ -1017,6 +1077,9 @@
       </c>
     </row>
     <row r="28" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
       <c r="I28" t="s">
         <v>70</v>
       </c>
@@ -1086,6 +1149,9 @@
       <c r="B37" t="s">
         <v>78</v>
       </c>
+      <c r="I37" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
@@ -1121,6 +1187,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
